--- a/dataset/result/tiedK_math.xlsx
+++ b/dataset/result/tiedK_math.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,25 +506,25 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>2687</v>
+        <v>1989</v>
       </c>
       <c r="H2" t="n">
-        <v>175</v>
+        <v>873</v>
       </c>
       <c r="I2" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06417112299465241</v>
+        <v>0.03429203539823009</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0933852140077821</v>
+        <v>0.06365503080082136</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>18254</v>
+        <v>13956</v>
       </c>
       <c r="H3" t="n">
-        <v>350</v>
+        <v>4648</v>
       </c>
       <c r="I3" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02506963788300836</v>
+        <v>0.00937766410912191</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0625</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03578528827037773</v>
+        <v>0.01819685690653433</v>
       </c>
     </row>
     <row r="4">
@@ -579,40 +579,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>35574</v>
+        <v>1628</v>
       </c>
       <c r="H4" t="n">
-        <v>385</v>
+        <v>1234</v>
       </c>
       <c r="I4" t="n">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02284263959390863</v>
+        <v>0.02218700475435816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04411764705882353</v>
+        <v>0.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03010033444816054</v>
+        <v>0.04204204204204205</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" t="n">
-        <v>877</v>
+        <v>13237</v>
       </c>
       <c r="H5" t="n">
-        <v>1985</v>
+        <v>5367</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02981427174975562</v>
+        <v>0.01160220994475138</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8714285714285714</v>
+        <v>0.4375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05765595463137996</v>
+        <v>0.02260495156081808</v>
       </c>
     </row>
     <row r="6">
@@ -667,40 +667,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>5880</v>
+        <v>2001</v>
       </c>
       <c r="H6" t="n">
-        <v>12724</v>
+        <v>861</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007952596288788399</v>
+        <v>0.03040540540540541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01572860447185813</v>
+        <v>0.05636743215031315</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +711,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>11243</v>
+        <v>14323</v>
       </c>
       <c r="H7" t="n">
-        <v>24716</v>
+        <v>4281</v>
       </c>
       <c r="I7" t="n">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00591239995173551</v>
+        <v>0.01154467790348649</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01172856743926278</v>
+        <v>0.0223463687150838</v>
       </c>
     </row>
     <row r="8">
@@ -755,12 +755,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>1736</v>
+        <v>1316</v>
       </c>
       <c r="H8" t="n">
-        <v>1126</v>
+        <v>1546</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03098106712564544</v>
+        <v>0.02644836272040302</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05844155844155844</v>
+        <v>0.05066344993968637</v>
       </c>
     </row>
     <row r="9">
@@ -799,12 +799,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -814,25 +814,25 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G9" t="n">
-        <v>14332</v>
+        <v>7659</v>
       </c>
       <c r="H9" t="n">
-        <v>4272</v>
+        <v>10945</v>
       </c>
       <c r="I9" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01339491916859122</v>
+        <v>0.008155867693701857</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.625</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02592758158247653</v>
+        <v>0.01610161910725467</v>
       </c>
     </row>
     <row r="10">
@@ -848,35 +848,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>27305</v>
+        <v>2065</v>
       </c>
       <c r="H10" t="n">
-        <v>8654</v>
+        <v>797</v>
       </c>
       <c r="I10" t="n">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009273039496279336</v>
+        <v>0.02686202686202686</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3970588235294117</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01812283253160309</v>
+        <v>0.04949381327334083</v>
       </c>
     </row>
     <row r="11">
@@ -892,35 +892,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>1200</v>
+        <v>14443</v>
       </c>
       <c r="H11" t="n">
-        <v>1662</v>
+        <v>4161</v>
       </c>
       <c r="I11" t="n">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02579132473622509</v>
+        <v>0.008577555396711936</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04954954954954955</v>
+        <v>0.0165860400829302</v>
       </c>
     </row>
     <row r="12">
@@ -936,35 +936,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G12" t="n">
-        <v>13441</v>
+        <v>829</v>
       </c>
       <c r="H12" t="n">
-        <v>5163</v>
+        <v>2033</v>
       </c>
       <c r="I12" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01091954022988506</v>
+        <v>0.02353506243996158</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02125279642058166</v>
+        <v>0.04553903345724907</v>
       </c>
     </row>
     <row r="13">
@@ -980,35 +980,1267 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>97</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4951</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13653</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.007054545454545455</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01396286166690658</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>929</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1933</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02521432173474534</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.04870920603994155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>106</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3277</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15327</v>
+      </c>
+      <c r="I15" t="n">
+        <v>38</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.006868398885505086</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01360980933427489</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>under</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>69</v>
-      </c>
-      <c r="G13" t="n">
-        <v>24867</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11092</v>
-      </c>
-      <c r="I13" t="n">
-        <v>135</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.006182241734611594</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3382352941176471</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.01214254289485262</v>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>51</v>
+      </c>
+      <c r="G16" t="n">
+        <v>885</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1977</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02514792899408284</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7285714285714285</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.04861773117254528</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>112</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3330</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15274</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.007279344858962694</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01442369607211848</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2391</v>
+      </c>
+      <c r="H18" t="n">
+        <v>471</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02282157676348548</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1571428571428571</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.03985507246376811</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16915</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1689</v>
+      </c>
+      <c r="I19" t="n">
+        <v>132</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.007054673721340388</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01300813008130081</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1426</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1436</v>
+      </c>
+      <c r="I20" t="n">
+        <v>38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0217983651226158</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.04161248374512354</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9430</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9174</v>
+      </c>
+      <c r="I21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008001730103806228</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01575809199318569</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1540</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1322</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02722590139808683</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.05178446466060182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>68</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10956</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7648</v>
+      </c>
+      <c r="I23" t="n">
+        <v>76</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.008812856402280975</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01730279898218829</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>36</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1428</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1434</v>
+      </c>
+      <c r="I24" t="n">
+        <v>34</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.02448979591836735</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.04675324675324675</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>89</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7496</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11108</v>
+      </c>
+      <c r="I25" t="n">
+        <v>55</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.007948557649370367</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01569526496781589</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2221</v>
+      </c>
+      <c r="H26" t="n">
+        <v>641</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0302571860816944</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.05471956224350205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15338</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3266</v>
+      </c>
+      <c r="I27" t="n">
+        <v>102</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01269649334945586</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02433371958285052</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>36</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1896</v>
+      </c>
+      <c r="H28" t="n">
+        <v>966</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.03592814371257485</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.06716417910447761</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>70</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13265</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5339</v>
+      </c>
+      <c r="I29" t="n">
+        <v>74</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01294139397300795</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.025211597334774</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H30" t="n">
+        <v>869</v>
+      </c>
+      <c r="I30" t="n">
+        <v>38</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.03551609322974473</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.06591143151390319</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14462</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4142</v>
+      </c>
+      <c r="I31" t="n">
+        <v>91</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01263408820023838</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02442959207190597</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>45</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1484</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1378</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03162333099086437</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.06028131279303416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>98</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7944</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10660</v>
+      </c>
+      <c r="I33" t="n">
+        <v>46</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.009109499907045919</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01797835259585397</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2862</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>70</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>18604</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>144</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>45</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1309</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1553</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.02816020025031289</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0539568345323741</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>82</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6643</v>
+      </c>
+      <c r="H37" t="n">
+        <v>11961</v>
+      </c>
+      <c r="I37" t="n">
+        <v>62</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.00680893465083451</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.01345696233691639</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>34</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1388</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.02390998593530239</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.04557640750670242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>79</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7643</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10961</v>
+      </c>
+      <c r="I39" t="n">
+        <v>65</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.007155797101449275</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.01412732474964235</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>49</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1281</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1581</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.03006134969325153</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.05764705882352941</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>87</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7386</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11218</v>
+      </c>
+      <c r="I41" t="n">
+        <v>57</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.007695709862892525</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.01519783387195388</v>
       </c>
     </row>
   </sheetData>
